--- a/assets/medicos.xlsx
+++ b/assets/medicos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>nombre</t>
   </si>
@@ -39,160 +39,259 @@
     <t>barrio</t>
   </si>
   <si>
+    <t>Reinaldo Sergio Zazzini</t>
+  </si>
+  <si>
+    <t>Cristina Graciela Gaitán</t>
+  </si>
+  <si>
+    <t>Beatríz Martinelli</t>
+  </si>
+  <si>
+    <t>Analista Clinico</t>
+  </si>
+  <si>
+    <t>Anabela B. Bassani</t>
+  </si>
+  <si>
+    <t>Miguel Amor</t>
+  </si>
+  <si>
+    <t>Noelia Ritondale</t>
+  </si>
+  <si>
+    <t>Cardiólogo</t>
+  </si>
+  <si>
+    <t>Andre Ricardo Rossi Dias</t>
+  </si>
+  <si>
+    <t>Walter Rodriguez</t>
+  </si>
+  <si>
+    <t>Cirujano cardiovascular</t>
+  </si>
+  <si>
+    <t>Carlos Salomon</t>
+  </si>
+  <si>
+    <t>Federico Benetti</t>
+  </si>
+  <si>
+    <t> Matias Bertiche</t>
+  </si>
+  <si>
+    <t>Ana Inés Garrido</t>
+  </si>
+  <si>
+    <t>Dermatólogo</t>
+  </si>
+  <si>
+    <t> Estefania Ojeda </t>
+  </si>
+  <si>
+    <t>Gastroenterólogo</t>
+  </si>
+  <si>
+    <t>Federico Butierrez</t>
+  </si>
+  <si>
+    <t>Rosa Isabel Ramos</t>
+  </si>
+  <si>
+    <t>Diego Pellicciotti</t>
+  </si>
+  <si>
+    <t>Ginecólogo</t>
+  </si>
+  <si>
+    <t>Roxana Resnik</t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>OSDE Binario</t>
+  </si>
+  <si>
+    <t>Galeno, IOMA, Medife, OSDE Binario, Swiss Medical, OSMATA</t>
+  </si>
+  <si>
+    <t>AcaSalud, DASUTeN, IAPOS, Medicus, Medife</t>
+  </si>
+  <si>
+    <t>Nora Catz</t>
+  </si>
+  <si>
+    <t>Galeno, Swiss Medical, Activa Salud, OSPA</t>
+  </si>
+  <si>
+    <t>Omint, OSDE Binario</t>
+  </si>
+  <si>
+    <t>Galeno, IOMA, Medife, Omint</t>
+  </si>
+  <si>
+    <t>Galeno, IAPOS, IOMA, Medicus, Medife, Omint, OSDE Binario, Swiss Medical</t>
+  </si>
+  <si>
+    <t>Galeno, IAPOS, IOMA, Medicus, Medife, Omint, OSDE Binario, Swiss Medical, Sancor Salud, PAMI</t>
+  </si>
+  <si>
+    <t>PAMI, Sancor Salud, AcaSalud</t>
+  </si>
+  <si>
+    <t>Medicus, Prevencion Salud</t>
+  </si>
+  <si>
+    <t>Galeno, IOMA, Medicus, Medife, OSDE Binario, Swiss Medical, Sancor Salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Claudia Martinetti</t>
+  </si>
+  <si>
+    <t>IOMA, Medife, Osdop, COMEI</t>
+  </si>
+  <si>
+    <t>IOMA, Medife, Galeno, Medicus, Omint, Swiss Medical, OSDE Binario</t>
+  </si>
+  <si>
+    <t>PROCREARTE</t>
+  </si>
+  <si>
+    <t>Pilar</t>
+  </si>
+  <si>
+    <t>Norte Grande</t>
+  </si>
+  <si>
+    <t>Victor Vergani 448</t>
+  </si>
+  <si>
     <t>Santiago del Estero</t>
   </si>
   <si>
-    <t>Reinaldo Sergio Zazzini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alergista, Otorrino </t>
-  </si>
-  <si>
-    <t>Cristina Graciela Gaitán</t>
-  </si>
-  <si>
-    <t>Alergista, Neumonólogo</t>
-  </si>
-  <si>
-    <t>Beatríz Martinelli</t>
-  </si>
-  <si>
-    <t>Analista Clinico</t>
-  </si>
-  <si>
-    <t>Carlos A. Fernández</t>
-  </si>
-  <si>
-    <t>Analista clínico, Cirujano general, Médico clínico</t>
-  </si>
-  <si>
-    <t>French 822, Oberá</t>
-  </si>
-  <si>
-    <t>AV ALBERDI 669,Rosario</t>
-  </si>
-  <si>
-    <t>Piedras 1228,Ciudad de buenos aires</t>
-  </si>
-  <si>
-    <t>Victor Vergani 448,Pilar</t>
-  </si>
-  <si>
-    <t>Corrientes 99,Frias</t>
-  </si>
-  <si>
-    <t>Anabela B. Bassani</t>
-  </si>
-  <si>
-    <t>Presidente Irigoyen 47, Trenque Lauquen</t>
-  </si>
-  <si>
-    <t>Miguel Amor</t>
-  </si>
-  <si>
-    <t>Cardiólogo, Médico deportólogo</t>
-  </si>
-  <si>
-    <t>Rosario 163 "Piso 2 Dto C", Capital Federal</t>
-  </si>
-  <si>
-    <t>Noelia Ritondale</t>
-  </si>
-  <si>
-    <t>Cardiólogo</t>
-  </si>
-  <si>
-    <t>MENDOZA 1560, Rosario</t>
-  </si>
-  <si>
-    <t>Andre Ricardo Rossi Dias</t>
-  </si>
-  <si>
-    <t>Calle 56, La Plata</t>
-  </si>
-  <si>
-    <t>Walter Rodriguez</t>
-  </si>
-  <si>
-    <t>Cirujano cardiovascular</t>
-  </si>
-  <si>
-    <t>MONTAÑESES 2325, Capital Federal</t>
-  </si>
-  <si>
-    <t>Carlos Salomon</t>
-  </si>
-  <si>
-    <t>Calle 59 Nº 434 , La Plata</t>
-  </si>
-  <si>
-    <t>Federico Benetti</t>
-  </si>
-  <si>
-    <t>ALEM 1846, Rosario</t>
-  </si>
-  <si>
-    <t> Matias Bertiche</t>
-  </si>
-  <si>
-    <t>Dermatólogo (Psoriasis, Dermatología Clínica, Dermatología Adulto)</t>
-  </si>
-  <si>
-    <t>Av. Córdoba 4123, Capital Federal</t>
-  </si>
-  <si>
-    <t>Ana Inés Garrido</t>
-  </si>
-  <si>
-    <t>Dermatólogo</t>
-  </si>
-  <si>
-    <t>dcalle 63 n°2043 entre calles 135 y 136, Los Hornos</t>
-  </si>
-  <si>
-    <t>Amalia Patricia Videla</t>
-  </si>
-  <si>
-    <t>Dermatólogo, Médico general y familiar,</t>
-  </si>
-  <si>
-    <t>Moreno 393, San Lorenzo</t>
-  </si>
-  <si>
-    <t> Estefania Ojeda </t>
-  </si>
-  <si>
-    <t>Gastroenterólogo</t>
-  </si>
-  <si>
-    <t>Diagonal 79 N° 74, La Plata</t>
-  </si>
-  <si>
-    <t>Federico Butierrez</t>
-  </si>
-  <si>
-    <t>Av. Callao 499, Capital Federal</t>
-  </si>
-  <si>
-    <t>Rosa Isabel Ramos</t>
-  </si>
-  <si>
-    <t>Calle 106 N°68, quilmes</t>
-  </si>
-  <si>
-    <t>Diego Pellicciotti</t>
-  </si>
-  <si>
-    <t>Ginecólogo</t>
-  </si>
-  <si>
-    <t>VELEZ SARSFIELD 825, Rosario</t>
-  </si>
-  <si>
-    <t>Roxana Resnik</t>
-  </si>
-  <si>
-    <t>Bulnes 1142 3 piso, Capital Federal</t>
+    <t>Frias</t>
+  </si>
+  <si>
+    <t>Corrientes 99</t>
+  </si>
+  <si>
+    <t>Ciudad de Buenos Aires</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Piedras 1228</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Lisandro de la Torre</t>
+  </si>
+  <si>
+    <t>AV ALBERDI 669</t>
+  </si>
+  <si>
+    <t>Av. Hipolito Yrigoyen 9175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lomas de Zamora</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>Presidente Irigoyen 47</t>
+  </si>
+  <si>
+    <t>Trenque Lauquen</t>
+  </si>
+  <si>
+    <t>Capital Federal</t>
+  </si>
+  <si>
+    <t>Caballito</t>
+  </si>
+  <si>
+    <t>Rosario 163 "Piso 2 Dto C"</t>
+  </si>
+  <si>
+    <t>Barrio Parque</t>
+  </si>
+  <si>
+    <t>MENDOZA 1560</t>
+  </si>
+  <si>
+    <t>Calle 56</t>
+  </si>
+  <si>
+    <t>La Plata</t>
+  </si>
+  <si>
+    <t>Las Quintas</t>
+  </si>
+  <si>
+    <t>MONTAÑESES 2325</t>
+  </si>
+  <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle 59 Nº 434 </t>
+  </si>
+  <si>
+    <t>Republica de la Sexta</t>
+  </si>
+  <si>
+    <t>ALEM 1846</t>
+  </si>
+  <si>
+    <t>Villa Crespo</t>
+  </si>
+  <si>
+    <t>Av. Córdoba 4123</t>
+  </si>
+  <si>
+    <t>Los Hornos</t>
+  </si>
+  <si>
+    <t>dcalle 63 n°2043 entre calles 135 y 136</t>
+  </si>
+  <si>
+    <t>Banfield</t>
+  </si>
+  <si>
+    <t>Cochabamba 427</t>
+  </si>
+  <si>
+    <t>Villa Urguello</t>
+  </si>
+  <si>
+    <t>Diagonal 79 N° 74</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>Av. Callao 499</t>
+  </si>
+  <si>
+    <t>Calle 106 N°68</t>
+  </si>
+  <si>
+    <t>Monteverde</t>
+  </si>
+  <si>
+    <t>VELEZ SARSFIELD 825</t>
+  </si>
+  <si>
+    <t>Almagro</t>
+  </si>
+  <si>
+    <t>Bulnes 1142 3 piso</t>
   </si>
 </sst>
 </file>
@@ -531,15 +630,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +660,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -564,219 +672,381 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
